--- a/Recycling/Met_rec/metrec_Avg_hist_Avg.xlsx
+++ b/Recycling/Met_rec/metrec_Avg_hist_Avg.xlsx
@@ -128,7 +128,7 @@
     <t>Dysprosium</t>
   </si>
   <si>
-    <t>Copper ores and concentrates</t>
+    <t>Copper</t>
   </si>
   <si>
     <t>Raw silicon</t>
@@ -2445,7 +2445,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>110830.1039065613</v>
+        <v>110830.1039065614</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2907,7 +2907,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>216811.3829355028</v>
+        <v>216811.3829355027</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3039,7 +3039,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>278380.1093116244</v>
+        <v>278380.1093116245</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3303,7 +3303,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>642552.1584811461</v>
+        <v>642552.158481146</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4887,7 +4887,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>748329.7765664501</v>
+        <v>748329.7765664503</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5085,7 +5085,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>939284.8480597935</v>
+        <v>939284.8480597934</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5283,7 +5283,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>1396816.716286597</v>
+        <v>1396816.716286596</v>
       </c>
     </row>
     <row r="5" spans="1:4">

--- a/Recycling/Met_rec/metrec_Avg_hist_Avg.xlsx
+++ b/Recycling/Met_rec/metrec_Avg_hist_Avg.xlsx
@@ -2012,7 +2012,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>95.96464489493643</v>
+        <v>95.96464489493644</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2464,7 +2464,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>144.4884070641081</v>
+        <v>144.4884070641082</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3644,7 +3644,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>3736.562463807168</v>
+        <v>3736.562463807169</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4096,7 +4096,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>3170.038393908026</v>
+        <v>3170.038393908025</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4416,7 +4416,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>2073.295398864571</v>
+        <v>2073.295398864572</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4460,7 +4460,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>39647.34393948485</v>
+        <v>39647.34393948483</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4620,7 +4620,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>3288.603509628189</v>
+        <v>3288.60350962819</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5932,7 +5932,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>44255.18399897659</v>
+        <v>44255.1839989766</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -5976,7 +5976,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>36483.63080917201</v>
+        <v>36483.63080917202</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -6544,7 +6544,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>89362.94880341004</v>
+        <v>89362.94880341005</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -7972,7 +7972,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>404266.0982951493</v>
+        <v>404266.0982951494</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -8496,7 +8496,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>702841.7977568179</v>
+        <v>702841.797756818</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -8744,7 +8744,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>411275.5103273625</v>
+        <v>411275.5103273623</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -10668,7 +10668,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>1500848.595195233</v>
+        <v>1500848.595195234</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -10988,7 +10988,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>2007215.355764826</v>
+        <v>2007215.355764827</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -11352,7 +11352,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>3541281.288883152</v>
+        <v>3541281.288883151</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -12008,7 +12008,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>1670841.46124703</v>
+        <v>1670841.461247029</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -12504,7 +12504,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>984246.6103447349</v>
+        <v>984246.6103447351</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -12708,7 +12708,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>815572.4435029728</v>
+        <v>815572.4435029727</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -13072,7 +13072,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>4077581.39359298</v>
+        <v>4077581.393592981</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -13116,7 +13116,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>620039.2694421243</v>
+        <v>620039.2694421242</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -13232,7 +13232,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>862428.7669544561</v>
+        <v>862428.7669544559</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -13320,7 +13320,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>524735.3395428231</v>
+        <v>524735.3395428233</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -13888,7 +13888,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>3586448.593483336</v>
+        <v>3586448.593483335</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -14252,7 +14252,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>792421.4076513749</v>
+        <v>792421.4076513752</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -14952,7 +14952,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>733414.3575989874</v>
+        <v>733414.3575989872</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -15840,7 +15840,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>2834440.789688358</v>
+        <v>2834440.789688359</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -16044,7 +16044,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>2940863.36932414</v>
+        <v>2940863.369324141</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -17196,7 +17196,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>1476434.083555457</v>
+        <v>1476434.083555458</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -17268,7 +17268,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>2738207.101898656</v>
+        <v>2738207.101898657</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -17356,7 +17356,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>8280130.1421129</v>
+        <v>8280130.142112898</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -18420,7 +18420,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>948654.0597084846</v>
+        <v>948654.0597084847</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -18740,7 +18740,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>1306204.185263693</v>
+        <v>1306204.185263694</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -18784,7 +18784,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>7937906.243277602</v>
+        <v>7937906.243277601</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -19396,7 +19396,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>8067046.607634702</v>
+        <v>8067046.607634703</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -19512,7 +19512,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>1762001.499678229</v>
+        <v>1762001.49967823</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -19644,7 +19644,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>886494.6946223689</v>
+        <v>886494.6946223688</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -20416,7 +20416,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>9296730.582717102</v>
+        <v>9296730.582717104</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -20780,7 +20780,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>2046362.618667258</v>
+        <v>2046362.618667257</v>
       </c>
     </row>
     <row r="9" spans="1:4">
